--- a/Template Import.xlsx
+++ b/Template Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clare\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clare\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80372EE-F569-4251-8A4B-9DC7B8D53DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FD5F7-EC4E-4F5B-BB23-42CA987D6180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2EC74211-09C7-4401-95A6-7C7719D0E524}"/>
+    <workbookView xWindow="-19310" yWindow="2030" windowWidth="19420" windowHeight="10300" xr2:uid="{2EC74211-09C7-4401-95A6-7C7719D0E524}"/>
   </bookViews>
   <sheets>
     <sheet name="Acceptable Values &amp; Headers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
   <si>
     <t>Loan Type</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Primary</t>
   </si>
   <si>
-    <t>Second Home</t>
-  </si>
-  <si>
     <t>No Penalty</t>
   </si>
   <si>
@@ -507,6 +504,33 @@
   </si>
   <si>
     <t>Must match Investor/Lender Name</t>
+  </si>
+  <si>
+    <t>Asset Depletion / Utilization</t>
+  </si>
+  <si>
+    <t>VOE</t>
+  </si>
+  <si>
+    <t>PnL: 12 Mo. CPA Prepared</t>
+  </si>
+  <si>
+    <t>PnL: 24 Mo. CPA Prepared</t>
+  </si>
+  <si>
+    <t>DSCR / No Ratio DSCR</t>
+  </si>
+  <si>
+    <t>No Income / No Employment / No DTI</t>
+  </si>
+  <si>
+    <t>Asset Qualifier</t>
+  </si>
+  <si>
+    <t>ATR-in-Full</t>
+  </si>
+  <si>
+    <t>Secondary</t>
   </si>
 </sst>
 </file>
@@ -884,7 +908,7 @@
   <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,40 +1046,40 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
         <v>43</v>
@@ -1106,7 +1130,7 @@
         <v>8.375</v>
       </c>
       <c r="AH2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1123,37 +1147,37 @@
         <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -1167,40 +1191,40 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -1217,28 +1241,28 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1249,28 +1273,28 @@
         <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1278,28 +1302,28 @@
         <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1307,25 +1331,25 @@
         <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -1333,22 +1357,22 @@
         <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -1356,22 +1380,22 @@
         <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -1379,22 +1403,22 @@
         <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -1402,205 +1426,229 @@
         <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="M13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="M15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="M17" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="M18" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="M19" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
       <c r="M20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M22" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M23" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M24" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M25" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="13:13" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M26" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="13:13" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M27" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="13:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M28" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M29" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="13:13" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M31" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M50" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Template Import.xlsx
+++ b/Template Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clare\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FD5F7-EC4E-4F5B-BB23-42CA987D6180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A9C99D-282B-438F-A1EB-6B48AFCB355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2030" windowWidth="19420" windowHeight="10300" xr2:uid="{2EC74211-09C7-4401-95A6-7C7719D0E524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2EC74211-09C7-4401-95A6-7C7719D0E524}"/>
   </bookViews>
   <sheets>
     <sheet name="Acceptable Values &amp; Headers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="168">
   <si>
     <t>Loan Type</t>
   </si>
@@ -531,6 +531,15 @@
   </si>
   <si>
     <t>Secondary</t>
+  </si>
+  <si>
+    <t>CO Amount</t>
+  </si>
+  <si>
+    <t>Cash-in-Hand</t>
+  </si>
+  <si>
+    <t>Numeric for C/O Refi &amp; Debt Consolidation. Not used for others</t>
   </si>
 </sst>
 </file>
@@ -905,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57AE576-6E4A-476C-92BF-C24B8054ABFC}">
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,16 +925,16 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="4" max="6" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,97 +948,103 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1043,19 +1058,19 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
       </c>
       <c r="J2" t="s">
         <v>82</v>
@@ -1064,31 +1079,31 @@
         <v>82</v>
       </c>
       <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" t="s">
-        <v>82</v>
       </c>
       <c r="Q2" t="s">
         <v>82</v>
       </c>
       <c r="R2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s">
         <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>41</v>
       </c>
       <c r="U2" t="s">
         <v>41</v>
@@ -1097,22 +1112,22 @@
         <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s">
         <v>41</v>
       </c>
       <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>46</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>47</v>
       </c>
       <c r="AC2" t="s">
         <v>47</v>
@@ -1124,16 +1139,22 @@
         <v>47</v>
       </c>
       <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" t="s">
         <v>48</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>8.375</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -1143,29 +1164,23 @@
       <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>68</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>72</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>135</v>
-      </c>
-      <c r="S3" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" t="s">
-        <v>141</v>
       </c>
       <c r="U3" t="s">
         <v>141</v>
@@ -1174,13 +1189,19 @@
         <v>141</v>
       </c>
       <c r="W3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y3" t="s">
         <v>150</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -1190,29 +1211,23 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>164</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>73</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>136</v>
-      </c>
-      <c r="S4" t="s">
-        <v>142</v>
-      </c>
-      <c r="T4" t="s">
-        <v>142</v>
       </c>
       <c r="U4" t="s">
         <v>142</v>
@@ -1221,13 +1236,19 @@
         <v>142</v>
       </c>
       <c r="W4" t="s">
+        <v>142</v>
+      </c>
+      <c r="X4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y4" t="s">
         <v>151</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1237,23 +1258,17 @@
       <c r="D5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>137</v>
-      </c>
-      <c r="S5" t="s">
-        <v>143</v>
-      </c>
-      <c r="T5" t="s">
-        <v>143</v>
       </c>
       <c r="U5" t="s">
         <v>143</v>
@@ -1262,33 +1277,33 @@
         <v>143</v>
       </c>
       <c r="W5" t="s">
+        <v>143</v>
+      </c>
+      <c r="X5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>138</v>
-      </c>
-      <c r="S6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" t="s">
-        <v>144</v>
       </c>
       <c r="U6" t="s">
         <v>144</v>
@@ -1296,28 +1311,28 @@
       <c r="V6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>139</v>
-      </c>
-      <c r="S7" t="s">
-        <v>145</v>
-      </c>
-      <c r="T7" t="s">
-        <v>145</v>
       </c>
       <c r="U7" t="s">
         <v>145</v>
@@ -1325,25 +1340,25 @@
       <c r="V7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>145</v>
+      </c>
+      <c r="X7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>140</v>
-      </c>
-      <c r="S8" t="s">
-        <v>146</v>
-      </c>
-      <c r="T8" t="s">
-        <v>146</v>
       </c>
       <c r="U8" t="s">
         <v>146</v>
@@ -1351,22 +1366,22 @@
       <c r="V8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
+        <v>146</v>
+      </c>
+      <c r="X8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="S9" t="s">
-        <v>147</v>
-      </c>
-      <c r="T9" t="s">
-        <v>147</v>
       </c>
       <c r="U9" t="s">
         <v>147</v>
@@ -1374,22 +1389,22 @@
       <c r="V9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>147</v>
+      </c>
+      <c r="X9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="S10" t="s">
-        <v>148</v>
-      </c>
-      <c r="T10" t="s">
-        <v>148</v>
       </c>
       <c r="U10" t="s">
         <v>148</v>
@@ -1397,22 +1412,22 @@
       <c r="V10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
+        <v>148</v>
+      </c>
+      <c r="X10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="S11" t="s">
-        <v>149</v>
-      </c>
-      <c r="T11" t="s">
-        <v>149</v>
       </c>
       <c r="U11" t="s">
         <v>149</v>
@@ -1420,234 +1435,240 @@
       <c r="V11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="W11" t="s">
+        <v>149</v>
+      </c>
+      <c r="X11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>156</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>158</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>159</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>161</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>162</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>163</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="1" t="s">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M22" s="1" t="s">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="1" t="s">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="1" t="s">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M25" s="1" t="s">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M26" s="1" t="s">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M27" s="1" t="s">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M28" s="1" t="s">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M29" s="1" t="s">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M30" s="1" t="s">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M31" s="1" t="s">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M32" s="1" t="s">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="1" t="s">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="1" t="s">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="1" t="s">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="1" t="s">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="1" t="s">
+    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="1" t="s">
+    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="1" t="s">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="1" t="s">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="1" t="s">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="1" t="s">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="1" t="s">
+    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="1" t="s">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="1" t="s">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="1" t="s">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="1" t="s">
+    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="1" t="s">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="1" t="s">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="1" t="s">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="1" t="s">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="1" t="s">
         <v>133</v>
       </c>
     </row>
